--- a/data/GSU_graduate.xlsx
+++ b/data/GSU_graduate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishnusankhyan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanuj/Desktop/chatbot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA37D1A-5748-A04D-8F53-C8D649C7268D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2F5419-5CC8-B84F-8B2E-E985E3B3B0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="148">
   <si>
     <t>Program Name</t>
   </si>
@@ -85,15 +85,6 @@
     <t>MBA</t>
   </si>
   <si>
-    <t>Ph.D. in Accountancy</t>
-  </si>
-  <si>
-    <t>Ph.D. in Digital Innovation</t>
-  </si>
-  <si>
-    <t>Doctor of Business Administration (DBA)</t>
-  </si>
-  <si>
     <t>https://robinson.gsu.edu/program/commercial-real-estate-ms/</t>
   </si>
   <si>
@@ -127,15 +118,6 @@
     <t>https://robinson.gsu.edu/program/mba/</t>
   </si>
   <si>
-    <t>https://robinson.gsu.edu/program/accountancy-phd/</t>
-  </si>
-  <si>
-    <t>https://robinson.gsu.edu/program/digital-innovation-phd/</t>
-  </si>
-  <si>
-    <t>https://robinson.gsu.edu/program/dba/</t>
-  </si>
-  <si>
     <t>Real estate investment, development, and finance taught through cases and live sessions.</t>
   </si>
   <si>
@@ -169,12 +151,6 @@
     <t>Cornerstone, Functional, and Capstone core + 4 concentration electives. Includes study abroad, Wall Street trips.</t>
   </si>
   <si>
-    <t>42 hours: 15 Research Methods, 18 Major, 9 Secondary Area.</t>
-  </si>
-  <si>
-    <t>Semesters 1-3: Research methods + group project; Semesters 4-6: Dissertation development.</t>
-  </si>
-  <si>
     <t>1-year program | Projects, guest speakers | ARGUS Certification | CCIM Fast Track Designation</t>
   </si>
   <si>
@@ -208,15 +184,6 @@
     <t>Core: Global Mgmt, Finance, Ethics, Analytics, Ops, Marketing, Strategy. Business Analysis major includes Data Mining, Modeling.</t>
   </si>
   <si>
-    <t>Includes Design of Experiments, Regression, Multivariate Analysis, electives in Theory Development, Psychometrics, and Analytics.</t>
-  </si>
-  <si>
-    <t>Core includes Theory Development, Experimental Design, Deep Learning, and University Teaching.</t>
-  </si>
-  <si>
-    <t>Courses include Qualitative &amp; Quantitative Research, Leadership, Managing Organizations, Digital Transformation.</t>
-  </si>
-  <si>
     <t>Real Estate Investment, Development, Finance</t>
   </si>
   <si>
@@ -250,21 +217,6 @@
     <t>Business Administration, Business Analysis (STEM)</t>
   </si>
   <si>
-    <t>Accounting Research, Research Methodology, Interdisciplinary Electives</t>
-  </si>
-  <si>
-    <t>Data Science &amp; Analytics, Health Analytics, Digital Innovation</t>
-  </si>
-  <si>
-    <t>Executive Leadership, Innovation, Applied Research</t>
-  </si>
-  <si>
-    <t>Assistantships available, full tuition waiver + stipend.</t>
-  </si>
-  <si>
-    <t>$115,313 (GA), $125,843 (non-GA), $129,497 (international); includes program fees.</t>
-  </si>
-  <si>
     <t>rcbgradadmissions@gsu.edu</t>
   </si>
   <si>
@@ -274,15 +226,6 @@
     <t>twynder1@gsu.edu</t>
   </si>
   <si>
-    <t>mmajerczyk@gsu.edu</t>
-  </si>
-  <si>
-    <t>arunrai@gsu.edu</t>
-  </si>
-  <si>
-    <t>execdoctorate@gsu.edu</t>
-  </si>
-  <si>
     <t>Lynn McKee, Stan Breon, Matt Delicata, Jay Mason, Jon Wiley, Vincent Yao</t>
   </si>
   <si>
@@ -311,15 +254,6 @@
   </si>
   <si>
     <t>Perry Binder, Loren Buysman, Thomas Conklin, Jean-Pascal Gingras, Glenn Harrison, Julie Ilgen</t>
-  </si>
-  <si>
-    <t>Dr. Michael Majerczyk</t>
-  </si>
-  <si>
-    <t>Arun Rai, James A. Harkins III Professor in Information Systems</t>
-  </si>
-  <si>
-    <t>Charles Dhanaraj, Arun Rai, Likoebe Maruping, Qian Gu</t>
   </si>
   <si>
     <t>rcbfinancialaid@gsu.edu</t>
@@ -456,16 +390,6 @@
     <t>The MBA program is highly customizable, offering nearly 20 concentrations and STEM options. It accommodates both full-time and part-time students, allowing flexibility while providing depth across finance, marketing, analytics, and more.</t>
   </si>
   <si>
-    <t>The Ph.D. in Accountancy is intended for those pursuing academic careers at research universities. It involves intensive coursework in accounting theory, research methods, and supporting areas such as economics and statistics.</t>
-  </si>
-  <si>
-    <t>The Ph.D. in Digital Innovation is an interdisciplinary program focused on cutting-edge research in digital technologies and innovation. It is part of the Ph.D. in Computer Information Systems and aligns with the Center for Digital Innovation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Doctor of Business Administration (DBA) is a three-year, part-time program designed for senior leaders who want to apply academic research to solve complex business problems. It emphasizes practical research and executive thought leadership.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">	404-413-7720</t>
   </si>
   <si>
@@ -545,12 +469,102 @@
   </si>
   <si>
     <t>$89,000</t>
+  </si>
+  <si>
+    <t>Lynn McKee</t>
+  </si>
+  <si>
+    <t>Yusen Xia</t>
+  </si>
+  <si>
+    <t>Rasha Ashraf</t>
+  </si>
+  <si>
+    <t>Simha R. Magal</t>
+  </si>
+  <si>
+    <t>Cuneyt Evirgen</t>
+  </si>
+  <si>
+    <t>M.S. in Quantitative Risk Analysis &amp; Management</t>
+  </si>
+  <si>
+    <t>https://robinson.gsu.edu/program/qram-ms/</t>
+  </si>
+  <si>
+    <t>Integrates financial engineering with risk science; ranked #1 U.S. public by Eduniversal 2024.</t>
+  </si>
+  <si>
+    <t>Courses in derivatives, credit risk, and quantitative analytics.</t>
+  </si>
+  <si>
+    <t>30 credit hours over 12 months.</t>
+  </si>
+  <si>
+    <t>Financial Risk | Analytics</t>
+  </si>
+  <si>
+    <t>Joe Chou, Ajay Subramanian, Stephen H. Shore, Alejandro Del Valle, Liang Peng, Ryan Grelecki, Todd Phillips, Perry Z. Binder.</t>
+  </si>
+  <si>
+    <t>Joe Chou</t>
+  </si>
+  <si>
+    <t>M.S. in Supply Chain Management</t>
+  </si>
+  <si>
+    <t>https://robinson.gsu.edu/program/supply-chain-management-ms/</t>
+  </si>
+  <si>
+    <t>STEM program focused on end‑to‑end logistics, analytics, and sustainability.</t>
+  </si>
+  <si>
+    <t>Core in procurement, logistics, and analytics plus capstone project.</t>
+  </si>
+  <si>
+    <t>30 credit hours in three semesters.</t>
+  </si>
+  <si>
+    <t>Logistics | Analytics | Sustainability</t>
+  </si>
+  <si>
+    <t>Yusen Xia, Sina Golara, Chris Pearson, Mark Ferguson, John P. Harrison, Chad Hartnell, Subhashish Samaddar, Alex Tawse.</t>
+  </si>
+  <si>
+    <t>404-413-7525</t>
+  </si>
+  <si>
+    <t>Kori Barham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefanos Orfanos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Satish Nargundkar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kori Barham</t>
+  </si>
+  <si>
+    <t>$42000-$43620</t>
+  </si>
+  <si>
+    <t>$46,589-$47,941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	 $38,438 </t>
+  </si>
+  <si>
+    <t>Director</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,7 +597,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -606,6 +620,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -614,13 +639,24 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -928,596 +964,604 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" customWidth="1"/>
-    <col min="2" max="2" width="68.5" customWidth="1"/>
-    <col min="3" max="3" width="119" customWidth="1"/>
-    <col min="4" max="4" width="90.5" customWidth="1"/>
-    <col min="5" max="5" width="88.6640625" customWidth="1"/>
-    <col min="6" max="7" width="42.83203125" customWidth="1"/>
-    <col min="8" max="8" width="53.33203125" customWidth="1"/>
-    <col min="9" max="9" width="112.33203125" customWidth="1"/>
-    <col min="10" max="10" width="48.5" customWidth="1"/>
-    <col min="11" max="11" width="39.6640625" customWidth="1"/>
-    <col min="12" max="12" width="43.83203125" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="68.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="76.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="60.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="6">
+        <v>15330</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N13" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
+    <row r="14" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L2" t="s">
-        <v>81</v>
-      </c>
+      <c r="M14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N14" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" t="s">
-        <v>122</v>
-      </c>
-      <c r="L8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" t="s">
-        <v>123</v>
-      </c>
-      <c r="L9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" t="s">
-        <v>135</v>
-      </c>
-      <c r="H10" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" t="s">
-        <v>124</v>
-      </c>
-      <c r="L10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" t="s">
-        <v>141</v>
-      </c>
-      <c r="H11" t="s">
-        <v>142</v>
-      </c>
-      <c r="I11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" t="s">
-        <v>125</v>
-      </c>
-      <c r="L11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" t="s">
-        <v>143</v>
-      </c>
-      <c r="H12" t="s">
-        <v>143</v>
-      </c>
-      <c r="I12" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" t="s">
-        <v>100</v>
-      </c>
-      <c r="K12" t="s">
-        <v>125</v>
-      </c>
-      <c r="L12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" t="s">
-        <v>121</v>
-      </c>
-      <c r="L13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" t="s">
-        <v>100</v>
-      </c>
-      <c r="K14" t="s">
-        <v>120</v>
-      </c>
-      <c r="L14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15" t="s">
-        <v>100</v>
-      </c>
-      <c r="K15" t="s">
-        <v>125</v>
-      </c>
-      <c r="L15" t="s">
-        <v>86</v>
-      </c>
+    <row r="15" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1532,9 +1576,8 @@
     <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{C798EE01-AD14-4295-9525-E2F6A3137596}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{088FB8EE-5016-4C50-BA49-40B17F0C70B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
